--- a/modelos/OBASPA4491043/OBASPA4491043_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4491043/OBASPA4491043_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,122 +473,102 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45014</v>
+        <v>45027</v>
       </c>
       <c r="B2" t="n">
-        <v>47.81055157717378</v>
+        <v>44.79972516036485</v>
       </c>
       <c r="C2" t="n">
-        <v>34.81021755268812</v>
+        <v>32.40643641903117</v>
       </c>
       <c r="D2" t="n">
-        <v>60.14029803754887</v>
+        <v>57.53329158296945</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45020</v>
+        <v>45033</v>
       </c>
       <c r="B3" t="n">
-        <v>46.26302337668292</v>
+        <v>38.66675258700934</v>
       </c>
       <c r="C3" t="n">
-        <v>33.60520271451905</v>
+        <v>25.92422404373574</v>
       </c>
       <c r="D3" t="n">
-        <v>60.08560154696713</v>
+        <v>52.28505025617849</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>44.86311789761419</v>
+        <v>41.93367396173317</v>
       </c>
       <c r="C4" t="n">
-        <v>32.99854659840513</v>
+        <v>28.34279661543802</v>
       </c>
       <c r="D4" t="n">
-        <v>58.85935354994547</v>
+        <v>54.98096742416724</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>45048</v>
       </c>
       <c r="B5" t="n">
-        <v>38.82235104645691</v>
+        <v>47.48223148507764</v>
       </c>
       <c r="C5" t="n">
-        <v>26.17705722222966</v>
+        <v>32.76926085257559</v>
       </c>
       <c r="D5" t="n">
-        <v>52.61226046341763</v>
+        <v>60.25768432839265</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45062</v>
       </c>
       <c r="B6" t="n">
-        <v>42.10174399003184</v>
+        <v>49.35435955970076</v>
       </c>
       <c r="C6" t="n">
-        <v>28.82721071014304</v>
+        <v>35.62025865006597</v>
       </c>
       <c r="D6" t="n">
-        <v>55.69809514074347</v>
+        <v>62.61232373663371</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45034</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45048</v>
-      </c>
-      <c r="B7" t="n">
-        <v>47.57058521323714</v>
-      </c>
-      <c r="C7" t="n">
-        <v>34.82029511071465</v>
-      </c>
-      <c r="D7" t="n">
-        <v>61.10325065651343</v>
-      </c>
-      <c r="E7" t="n">
-        <v>59</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45041</v>
+        <v>45055</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,80 +634,54 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>77.6258190940393</v>
+        <v>173.9272778134758</v>
       </c>
       <c r="C2" t="n">
-        <v>8.810551577173776</v>
+        <v>13.18814914282803</v>
       </c>
       <c r="D2" t="n">
-        <v>8.810551577173776</v>
+        <v>13.13346068736191</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2259115789018917</v>
+        <v>0.3341138812457792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2259115789018917</v>
+        <v>0.3341138812457792</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2029834257956828</v>
+        <v>0.3222608488580483</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>173.7289687250866</v>
+        <v>409.4311305616128</v>
       </c>
       <c r="C3" t="n">
-        <v>13.18062854059269</v>
+        <v>20.23440462582511</v>
       </c>
       <c r="D3" t="n">
-        <v>13.13969647178746</v>
+        <v>18.35746763808609</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3354471383893018</v>
+        <v>0.6734684108604359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3354471383893018</v>
+        <v>0.2275909455109509</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3222456244854555</v>
+        <v>0.4537648612384221</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>110.302869601123</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10.50251729830154</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.943106755277196</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1828610952649815</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1937188946908958</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1968478791337606</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4491043/OBASPA4491043_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4491043/OBASPA4491043_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,102 +473,122 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45027</v>
+        <v>45014</v>
       </c>
       <c r="B2" t="n">
-        <v>44.79972516036485</v>
+        <v>47.73959276065617</v>
       </c>
       <c r="C2" t="n">
-        <v>32.40643641903117</v>
+        <v>35.2605420301458</v>
       </c>
       <c r="D2" t="n">
-        <v>57.53329158296945</v>
+        <v>60.71948431279148</v>
       </c>
       <c r="E2" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45033</v>
+        <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>38.66675258700934</v>
+        <v>46.19423505898035</v>
       </c>
       <c r="C3" t="n">
-        <v>25.92422404373574</v>
+        <v>33.06265243114875</v>
       </c>
       <c r="D3" t="n">
-        <v>52.28505025617849</v>
+        <v>59.39069850436943</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>41.93367396173317</v>
+        <v>44.77308341869858</v>
       </c>
       <c r="C4" t="n">
-        <v>28.34279661543802</v>
+        <v>32.39939691949603</v>
       </c>
       <c r="D4" t="n">
-        <v>54.98096742416724</v>
+        <v>57.55282119530796</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45048</v>
+        <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>47.48223148507764</v>
+        <v>38.78666204020514</v>
       </c>
       <c r="C5" t="n">
-        <v>32.76926085257559</v>
+        <v>25.50983481109876</v>
       </c>
       <c r="D5" t="n">
-        <v>60.25768432839265</v>
+        <v>52.19732458664052</v>
       </c>
       <c r="E5" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45062</v>
+        <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>49.35435955970076</v>
+        <v>41.86803713596341</v>
       </c>
       <c r="C6" t="n">
-        <v>35.62025865006597</v>
+        <v>29.97171998678125</v>
       </c>
       <c r="D6" t="n">
-        <v>62.61232373663371</v>
+        <v>55.04915311710211</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45055</v>
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47.48878241154276</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34.53347336336186</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60.43672766029886</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45041</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,54 +654,80 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>173.9272778134758</v>
+        <v>76.38048162211378</v>
       </c>
       <c r="C2" t="n">
-        <v>13.18814914282803</v>
+        <v>8.739592760656173</v>
       </c>
       <c r="D2" t="n">
-        <v>13.13346068736191</v>
+        <v>8.739592760656173</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3341138812457792</v>
+        <v>0.224092122068107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3341138812457792</v>
+        <v>0.224092122068107</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3222608488580483</v>
+        <v>0.2015133454631649</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>171.434640709976</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.09330518662022</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.04068754787913</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3318887128930522</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3318887128930522</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3199884027539405</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>409.4311305616128</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20.23440462582511</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.35746763808609</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6734684108604359</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2275909455109509</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4537648612384221</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3333333333333334</v>
+      <c r="B4" t="n">
+        <v>111.4798434884848</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.55840155935002</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.97745640957967</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1832814429049484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1951053828552075</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1975793280167079</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4491043/OBASPA4491043_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4491043/OBASPA4491043_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>47.73959276065617</v>
       </c>
       <c r="C2" t="n">
-        <v>35.2605420301458</v>
+        <v>34.63356352349366</v>
       </c>
       <c r="D2" t="n">
-        <v>60.71948431279148</v>
+        <v>61.10221992913007</v>
       </c>
       <c r="E2" t="n">
         <v>39</v>
@@ -499,10 +499,10 @@
         <v>46.19423505898035</v>
       </c>
       <c r="C3" t="n">
-        <v>33.06265243114875</v>
+        <v>33.26527186665261</v>
       </c>
       <c r="D3" t="n">
-        <v>59.39069850436943</v>
+        <v>58.80691915190969</v>
       </c>
       <c r="E3" t="n">
         <v>41</v>
@@ -519,10 +519,10 @@
         <v>44.77308341869858</v>
       </c>
       <c r="C4" t="n">
-        <v>32.39939691949603</v>
+        <v>32.34726245090872</v>
       </c>
       <c r="D4" t="n">
-        <v>57.55282119530796</v>
+        <v>58.5487382910872</v>
       </c>
       <c r="E4" t="n">
         <v>58</v>
@@ -539,10 +539,10 @@
         <v>38.78666204020514</v>
       </c>
       <c r="C5" t="n">
-        <v>25.50983481109876</v>
+        <v>25.74980050130673</v>
       </c>
       <c r="D5" t="n">
-        <v>52.19732458664052</v>
+        <v>52.27681042126205</v>
       </c>
       <c r="E5" t="n">
         <v>53</v>
@@ -559,10 +559,10 @@
         <v>41.86803713596341</v>
       </c>
       <c r="C6" t="n">
-        <v>29.97171998678125</v>
+        <v>28.84697802474441</v>
       </c>
       <c r="D6" t="n">
-        <v>55.04915311710211</v>
+        <v>55.52051956706639</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
@@ -579,10 +579,10 @@
         <v>47.48878241154276</v>
       </c>
       <c r="C7" t="n">
-        <v>34.53347336336186</v>
+        <v>33.75222976835599</v>
       </c>
       <c r="D7" t="n">
-        <v>60.43672766029886</v>
+        <v>60.23092123445858</v>
       </c>
       <c r="E7" t="n">
         <v>59</v>
@@ -727,7 +727,7 @@
         <v>0.1975793280167079</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
